--- a/1des/resultados1des2022.xlsx
+++ b/1des/resultados1des2022.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB69CB5-900A-41F8-96DB-B38FEE911CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FPOO" sheetId="1" r:id="rId1"/>
     <sheet name="LIMA" sheetId="2" r:id="rId2"/>
     <sheet name="HARE" sheetId="3" r:id="rId3"/>
     <sheet name="SOP" sheetId="4" r:id="rId4"/>
+    <sheet name="Entregas" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="95">
   <si>
     <t>Teo.</t>
   </si>
@@ -241,13 +243,94 @@
   </si>
   <si>
     <t>Pensar</t>
+  </si>
+  <si>
+    <t>Repositorios</t>
+  </si>
+  <si>
+    <t>https://github.com/anaclara000</t>
+  </si>
+  <si>
+    <t>https://github.com/AndreinaMoura</t>
+  </si>
+  <si>
+    <t>https://github.com/BeaGabriela</t>
+  </si>
+  <si>
+    <t>https://github.com/BrenoJorge</t>
+  </si>
+  <si>
+    <t>https://github.com/BrunoFavaro714</t>
+  </si>
+  <si>
+    <t>https://github.com/TrenksSS</t>
+  </si>
+  <si>
+    <t>https://github.com/c-alvares</t>
+  </si>
+  <si>
+    <t>https://github.com/cmpseduardo</t>
+  </si>
+  <si>
+    <t>https://github.com/EmersonCCSantos</t>
+  </si>
+  <si>
+    <t>https://github.com/Felipe357</t>
+  </si>
+  <si>
+    <t>https://github.com/Canizelacanizela</t>
+  </si>
+  <si>
+    <t>https://github.com/GleidsonSousa</t>
+  </si>
+  <si>
+    <t>https://github.com/FineMustache</t>
+  </si>
+  <si>
+    <t>https://github.com/MelroGui</t>
+  </si>
+  <si>
+    <t>https://github.com/Joao-Augusto0</t>
+  </si>
+  <si>
+    <t>https://github.com/PastorelliJulia</t>
+  </si>
+  <si>
+    <t>https://github.com/Leticia567ds</t>
+  </si>
+  <si>
+    <t>https://github.com/Luana1Brand</t>
+  </si>
+  <si>
+    <t>https://github.com/luzin747</t>
+  </si>
+  <si>
+    <t>https://github.com/batista29</t>
+  </si>
+  <si>
+    <t>https://github.com/RodolfoAura</t>
+  </si>
+  <si>
+    <t>https://github.com/RodrickCS</t>
+  </si>
+  <si>
+    <t>https://github.com/Sanzappa</t>
+  </si>
+  <si>
+    <t>https://github.com/victoriacduo</t>
+  </si>
+  <si>
+    <t>https://github.com/Vicafe04</t>
+  </si>
+  <si>
+    <t>https://github.com/Anon1mo15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +389,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,10 +415,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,8 +432,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -679,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3154,7 +3248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3480,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
@@ -3803,4 +3897,276 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE8BBDE-6D60-438E-A327-880B06C9683B}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AAAFF477-1539-4980-A57D-1AEE13398516}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{11388C4F-B070-45AD-A131-DD21EE6D61FF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{40A674AA-B211-4AC4-8F7F-E8CE1193C672}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{520ACBBD-B182-4780-A83A-F3DDB0B98D8E}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{44111C2C-E26A-4E11-A220-62B991D819CC}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{D6D89494-EE51-418B-BE16-74CD9F336DD5}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{826F83EB-1818-4E69-A00F-5FD3370CE64F}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{2E9DA2BA-F42B-4FDD-BFD6-33757E0FEE29}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{5C5DFCB1-E94C-4B65-ABC5-41C7D9A659B6}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{E313C4A9-B5F2-4157-BFE7-52DE5CECE3CC}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{C916159A-0B95-4D5E-8117-D5AAA0B67BF0}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{6C7BF1E0-03DB-4896-8E24-7FE4906B9573}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{DE8252B3-F90E-4280-8EE1-A56C5EF3E7B4}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{E9B855E3-C161-4DA5-ADFC-0A987DEE48C2}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{B8487F87-E722-4AAF-830E-C19C6A6C96A1}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{D793CAA6-51F1-457E-A579-988839B9FE34}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{AF0C082E-2924-4DEC-A492-A223D8506F54}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{25AE1CCE-34AF-4E39-9942-64A9E9D2D23D}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{F06004AC-DB41-41D1-9D13-634AA58CCE3F}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{67EC66EB-93A7-4328-8C52-D28F511FF8AE}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{0AA1AC0D-B5DE-4409-97FB-6098E67EBB07}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{5D415BAB-A07D-47D3-8DD7-27EFBAAAB8E8}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{F2D7BEFA-F761-4A8B-B784-3995B85E1994}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{5D7180AF-0B5B-4A7B-8DA0-02D1184FC45A}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{E8FF3507-6747-4080-8A38-3BCD4161D593}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{2A079010-2864-42A8-9F97-F86F83F7A891}"/>
+    <hyperlink ref="B8" r:id="rId27" xr:uid="{FD413C50-B52E-4DF2-B8AB-54CDF9CA10FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>